--- a/public/ExamplesImportacion/Dcorreos.xlsx
+++ b/public/ExamplesImportacion/Dcorreos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programas\flutter\proyects\ILLAPA\illapaDesig\illapaApi\public\ExamplesImportacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programas\flutter\proyects\ILLAPA\ILLAPA-APIS\public\ExamplesImportacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E9E0A5-4A25-4105-8F8A-142E64D1F250}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926B3FE0-BBA2-447C-868C-209DE3BE608F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22284" windowHeight="13176" xr2:uid="{6F0ACF3F-C7BC-4D8B-8E2A-7CF37D5B1CAC}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>DNI</t>
   </si>
@@ -57,19 +57,37 @@
     <t>20230013@hotmail.com</t>
   </si>
   <si>
-    <t>20230011@hotmail.com</t>
-  </si>
-  <si>
     <t>20230009@hotmail.com</t>
   </si>
   <si>
-    <t>20230007@hotmail.com</t>
-  </si>
-  <si>
-    <t>20230005@hotmail.com</t>
-  </si>
-  <si>
-    <t>20230003@hotmail.com</t>
+    <t>20230002@hotmail.com</t>
+  </si>
+  <si>
+    <t>20230006@hotmail.com</t>
+  </si>
+  <si>
+    <t>20230019@hotmail.com</t>
+  </si>
+  <si>
+    <t>20230014@hotmail.com</t>
+  </si>
+  <si>
+    <t>20230010@hotmail.com</t>
+  </si>
+  <si>
+    <t>20230008@hotmail.com</t>
+  </si>
+  <si>
+    <t>RUC</t>
+  </si>
+  <si>
+    <t>20408000001@hotmail.com</t>
+  </si>
+  <si>
+    <t>20408000008@hotmail.com</t>
+  </si>
+  <si>
+    <t>20408000017@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -139,13 +157,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Excel Built-in Comma" xfId="4" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
@@ -464,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C454D3-C2F5-4707-B855-6FFEC36BC394}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A11"/>
+      <selection sqref="A1:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,10 +541,10 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>20230013</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>20230002</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -537,10 +552,10 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>20230011</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>20230006</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -548,10 +563,10 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>20230009</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>20230013</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -559,10 +574,10 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>20230007</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>20230019</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -570,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>20230005</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>20230014</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -581,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>20230003</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
+        <v>20230010</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -592,24 +607,58 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>20230001</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>4</v>
+        <v>20230008</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>20230009</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>20408000001</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>20408000008</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>20408000017</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{0FBF877C-D90D-4E70-9BA5-E177F458435A}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{D78FD432-4791-469B-9C21-BB0E51D68D5F}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{62FEBF1E-5563-4A1C-8395-3FAEC560D7CC}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{D0ACC987-2B4B-47F6-85E6-5E947EF3068A}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{39FF6C70-0D97-4839-BB3B-BBA24C863437}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{FA6A9231-C43B-4995-93F4-D5A42B391CEB}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{020A634C-56AC-4436-A887-C57889C1A9D4}"/>
-    <hyperlink ref="C10" r:id="rId8" xr:uid="{A0FD24E1-547C-4A51-8A15-1B11AC91F7E1}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId9"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>